--- a/Testdata/case.xlsx
+++ b/Testdata/case.xlsx
@@ -5,24 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Hw_Project\Hw_Router_Api_Test\HW_router\test\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Hw_Router_Api_Test\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="add" sheetId="4" r:id="rId4"/>
+    <sheet name="GetBlackBlackList" sheetId="1" r:id="rId1"/>
+    <sheet name="CollectGameInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="InstallPlug" sheetId="3" r:id="rId3"/>
+    <sheet name="SearchGame" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>case_id</t>
   </si>
@@ -49,13 +49,45 @@
   </si>
   <si>
     <t>check_sql</t>
+  </si>
+  <si>
+    <t>正常获取游戏黑名单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/xyhw/GetBlackBlackLIst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userid":5454,"gameId":456,"time":"564564654","sign":"64564564564654TJKJ"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userid":,"gameId":456,"time":"564564654","sign":"64564564564654TJKJ"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +118,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,7 +154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -124,6 +169,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -399,159 +452,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="64.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="71.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="68.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="7.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="31.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="64.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="71.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="68.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -700,6 +694,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -895,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/Testdata/case.xlsx
+++ b/Testdata/case.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Hw_Router_Api_Test\Testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12468" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="GetBlackBlackList" sheetId="1" r:id="rId1"/>
-    <sheet name="CollectGameInfo" sheetId="2" r:id="rId2"/>
-    <sheet name="InstallPlug" sheetId="3" r:id="rId3"/>
-    <sheet name="SearchGame" sheetId="4" r:id="rId4"/>
+    <sheet name="GetNodeList" sheetId="1" r:id="rId1"/>
+    <sheet name="GetGameList" sheetId="2" r:id="rId2"/>
+    <sheet name="GetRouteList" sheetId="3" r:id="rId3"/>
+    <sheet name="AccHistoryInfo" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>case_id</t>
   </si>
@@ -51,43 +46,47 @@
     <t>check_sql</t>
   </si>
   <si>
-    <t>正常获取游戏黑名单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/xyhw/GetBlackBlackLIst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userid":5454,"gameId":456,"time":"564564654","sign":"64564564564654TJKJ"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userid":,"gameId":456,"time":"564564654","sign":"64564564564654TJKJ"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>获取短信验证码（正确流程）</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/api/v/1.0/auth/sms_codes</t>
+  </si>
+  <si>
+    <t>{"mobile":"15882438611"}</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'message': 'success', 'timestamp': 1567153119, 'once': 'gV2yrq', 'data': ''}</t>
+  </si>
+  <si>
+    <t>{'data': {'code': 1234}, 'code': 200, 'message': 'success', 'timestamp': 1567241634, 'once': '3LbFLE'}</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>不传入参数</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'code': 200, 'message': 'success', 'timestamp': 1567153119, 'once': 'gV2yrq', 'data': ''} </t>
+  </si>
+  <si>
+    <t>{'code': 422, 'message': '电话号码不能为空'}</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,14 +182,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -451,29 +442,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="8" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="31.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="64.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="71.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="68.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="7.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="64.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="80" style="8" customWidth="1"/>
+    <col min="7" max="7" width="102.21875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="8" customWidth="1"/>
+    <col min="10" max="18" width="9" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -502,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.4" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -510,69 +501,81 @@
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.4" customHeight="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="58.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="71.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="58.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="71.21875" style="4" customWidth="1"/>
     <col min="7" max="7" width="65" style="4" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="8" max="8" width="6.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="4" customWidth="1"/>
+    <col min="10" max="18" width="9" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -601,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -611,7 +614,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -621,7 +624,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -631,7 +634,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -641,7 +644,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -651,7 +654,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -661,7 +664,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -671,7 +674,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -681,7 +684,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -694,34 +697,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="53.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="64.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="17.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="53.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="64.21875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="4" customWidth="1"/>
+    <col min="10" max="18" width="9" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -750,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -760,7 +763,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -770,7 +773,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -780,7 +783,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -790,7 +793,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -800,7 +803,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -810,7 +813,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -820,7 +823,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -830,7 +833,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -840,7 +843,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -850,7 +853,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -860,7 +863,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -870,7 +873,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -887,28 +890,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" activeCellId="1" sqref="E17 E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="144.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.25" style="2" customWidth="1"/>
-    <col min="7" max="8" width="7.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="144.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.21875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="7.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="2" customWidth="1"/>
+    <col min="10" max="18" width="9" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -937,157 +940,157 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:8">
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:8">
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:8">
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:8">
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:8">
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:8">
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:8">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:8">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:8">
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:8">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:8">
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:8">
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:8">
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:8">
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:8">
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:8">
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:8">
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:8">
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:8">
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:8">
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:8">
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
